--- a/Table/UnitRandomTable.xlsx
+++ b/Table/UnitRandomTable.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,14 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FrontArm-string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackArm-string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Stat-string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,18 +163,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>인간- 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         6. 몸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         5. 모자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         4. 얼굴 장식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         3. 얼굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         2. 뒷머리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.머리카락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         0. 머리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸과 같은 세트의 팔 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>UnitAppearanceTable 참조
-UnitAppearanceTable의 ID를 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용 가능한 
-랜덤 이미지
-1,2,5 같이 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간-남성 기본</t>
+UnitAppearanceTable의 ID를 사용
+사용 가능한 랜덤 이미지
+1,2,5 같이 입력
+다중 입력시 , 가 아닌 /로 나눔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/4/5/6/7/8/9/10/11/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14/17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +258,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -240,7 +269,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,72 +587,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
-    <col min="4" max="9" width="19.5" style="1" customWidth="1"/>
-    <col min="10" max="13" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="9.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="3" customWidth="1"/>
+    <col min="4" max="11" width="19.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.875" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3">
         <v>1</v>
       </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="3">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E4" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -624,7 +689,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D4" sqref="D4:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -679,89 +744,101 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>37</v>
+      <c r="C4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="C6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -771,13 +848,11 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -787,7 +862,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -795,7 +870,7 @@
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="1"/>
@@ -809,7 +884,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -821,7 +896,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -833,7 +908,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -892,7 +967,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D4:D12"/>
-    <mergeCell ref="C4:C12"/>
+    <mergeCell ref="B11:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Table/UnitRandomTable.xlsx
+++ b/Table/UnitRandomTable.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" calcMode="manual"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -211,7 +211,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>14/17</t>
+    <t>14/15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,7 +590,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Table/UnitRandomTable.xlsx
+++ b/Table/UnitRandomTable.xlsx
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -598,7 +598,9 @@
     <col min="1" max="1" width="9.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="28.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.875" style="3" customWidth="1"/>
-    <col min="4" max="11" width="19.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.5" style="3" customWidth="1"/>
+    <col min="6" max="11" width="19.5" style="3" customWidth="1"/>
     <col min="12" max="12" width="8.875" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
   </cols>

--- a/Table/UnitRandomTable.xlsx
+++ b/Table/UnitRandomTable.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-054\Documents\GitHub\ProjectApo\Table\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="8070"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,15 +205,11 @@
     <t>3/4/5/6/7/8/9/10/11/12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>14/15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -343,7 +334,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,7 +369,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -590,7 +581,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -670,8 +661,8 @@
       <c r="I2" s="3">
         <v>0</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>46</v>
+      <c r="J2" s="3">
+        <v>14</v>
       </c>
       <c r="K2" s="3">
         <v>0</v>

--- a/Table/UnitRandomTable.xlsx
+++ b/Table/UnitRandomTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +203,10 @@
   </si>
   <si>
     <t>3/4/5/6/7/8/9/10/11/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14/15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,7 +585,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -661,8 +665,8 @@
       <c r="I2" s="3">
         <v>0</v>
       </c>
-      <c r="J2" s="3">
-        <v>14</v>
+      <c r="J2" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="K2" s="3">
         <v>0</v>

--- a/Table/UnitRandomTable.xlsx
+++ b/Table/UnitRandomTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="8070"/>
+    <workbookView xWindow="750" yWindow="525" windowWidth="20475" windowHeight="8070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,22 @@
   </si>
   <si>
     <t>14/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀비-테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리트좀비-테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16/17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19/20/21/22/23/24/25/26/27/28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,7 +601,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -672,8 +688,75 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>30</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+    </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E4" s="5"/>
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>29</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>31</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Table/UnitRandomTable.xlsx
+++ b/Table/UnitRandomTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="525" windowWidth="20475" windowHeight="8070"/>
+    <workbookView xWindow="735" yWindow="150" windowWidth="23430" windowHeight="8070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Face-string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hat-string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Body-string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Stat-string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Face</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FaceDeco</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,67 +150,81 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">         6. 몸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         5. 모자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         4. 얼굴 장식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         3. 얼굴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         2. 뒷머리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         1.머리카락</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         0. 머리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>몸과 같은 세트의 팔 사용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UnitAppearanceTable 참조
-UnitAppearanceTable의 ID를 사용
+    <t>좀비-테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리트좀비-테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 6 타입은 UnitAnimatorTableData 참조
+UnitAnimatorTableData의 ID를 사용
+3, 6을 제외한 타입은 UnitSpriteTableData 참조
+UnitSpriteTableData의 ID를 사용
 사용 가능한 랜덤 이미지
-1,2,5 같이 입력
+1/2/5 같이 입력
 다중 입력시 , 가 아닌 /로 나눔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3/4/5/6/7/8/9/10/11/12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14/15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좀비-테스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘리트좀비-테스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16/17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19/20/21/22/23/24/25/26/27/28</t>
+    <t>HeadAnim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리카락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒷머리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리 애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴 장식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸 애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeadAnim-string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BodyAnim-string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/3/4/5/6/7/8/9/10/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14/15/16/17/18/19/20/21/22/23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -269,7 +271,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,7 +285,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -292,6 +297,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -601,7 +612,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -629,26 +640,26 @@
       <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -658,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -666,23 +677,23 @@
       <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>45</v>
+      <c r="E2" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="F2" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" s="3">
         <v>0</v>
       </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>46</v>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="K2" s="3">
         <v>0</v>
@@ -693,31 +704,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="3">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>49</v>
+      <c r="G3" s="4">
+        <v>0</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
       </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>30</v>
+      <c r="I3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="9">
+        <v>7</v>
       </c>
       <c r="K3" s="3">
         <v>1</v>
@@ -728,31 +739,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
       </c>
       <c r="D4" s="3">
-        <v>29</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>50</v>
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="G4" s="5">
-        <v>18</v>
+      <c r="G4" s="4">
+        <v>0</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J4" s="3">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="K4" s="3">
         <v>2</v>
@@ -761,6 +772,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -769,7 +781,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -826,99 +838,99 @@
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>44</v>
+      <c r="C4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="7"/>
+      <c r="C5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="7"/>
+      <c r="C7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="7"/>
+      <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="7"/>
+      <c r="C9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="7"/>
+      <c r="C10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -928,11 +940,11 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -942,7 +954,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
